--- a/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020_Formulaire_Enquete_de_couverture.xlsx
+++ b/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020_Formulaire_Enquete_de_couverture.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\SCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97BD51C5-48A4-4BC1-A93E-AE2576A032E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08234F76-50F9-4326-A9BB-DC8109F20981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="195">
   <si>
     <t>type</t>
   </si>
@@ -270,9 +270,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Personne_interrogee_</t>
-  </si>
-  <si>
     <t>Chef_de_menage_ou_autre_adulte</t>
   </si>
   <si>
@@ -345,15 +342,6 @@
     <t>1. Code enquêteurs</t>
   </si>
   <si>
-    <t>2. Numéro grappe</t>
-  </si>
-  <si>
-    <t>3. Numéro ménage</t>
-  </si>
-  <si>
-    <t>6. Age (en année)</t>
-  </si>
-  <si>
     <t xml:space="preserve">12. Raisons pour lesquelles vous n’avez pas eu les médicaments </t>
   </si>
   <si>
@@ -363,27 +351,6 @@
     <t>12.b. Autres raisons</t>
   </si>
   <si>
-    <t>7. Sexe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. Personne qui répond au questionnaire </t>
-  </si>
-  <si>
-    <t>9. Depuis combien d’année vivez-vous dans ce village ?</t>
-  </si>
-  <si>
-    <t>16. Avez-vous eu des effets indésirables après  la prise d l'ivermectine</t>
-  </si>
-  <si>
-    <t>17.b. Autres effet indésirables</t>
-  </si>
-  <si>
-    <t>18. Combien de temps après avez-vous eu cet/ces effet (s)?</t>
-  </si>
-  <si>
-    <t>19. Notes</t>
-  </si>
-  <si>
     <t>label::French</t>
   </si>
   <si>
@@ -399,18 +366,9 @@
     <t>Lieux</t>
   </si>
   <si>
-    <t xml:space="preserve">Où étiez-vous lorsque vous avez reçu le médicament? </t>
-  </si>
-  <si>
-    <t>Combien de comprimés avez-vous avalé</t>
-  </si>
-  <si>
     <t>Prise_Supervisee</t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous avalé ces médicaments devant la personne qui vous les a donnés ? </t>
-  </si>
-  <si>
     <t>Prise_taille</t>
   </si>
   <si>
@@ -420,18 +378,9 @@
     <t>Taille</t>
   </si>
   <si>
-    <t>Prendre la taille de l'enqêté à l'aide d'une toise et noter les résultats</t>
-  </si>
-  <si>
     <t>Traitementparlequipe</t>
   </si>
   <si>
-    <t>L'enquêté a-t-il été traité par l'équipe?</t>
-  </si>
-  <si>
-    <t>si enquêté present</t>
-  </si>
-  <si>
     <t>Personne interrogée présente</t>
   </si>
   <si>
@@ -450,9 +399,6 @@
     <t>Vert</t>
   </si>
   <si>
-    <t>Sélectionner un DS</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
@@ -483,18 +429,12 @@
     <t>. &gt;= 5 and .&lt;15</t>
   </si>
   <si>
-    <t xml:space="preserve">Combien de fois avez-vous pris le PZQ au cours des 5 dernières années </t>
-  </si>
-  <si>
     <t>. &lt;= 3</t>
   </si>
   <si>
     <t>Nbre_PZQ_5</t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous reçu les comprimés de PZQ lors de la dernière campagne ? </t>
-  </si>
-  <si>
     <t>Recu_PZQ</t>
   </si>
   <si>
@@ -510,9 +450,6 @@
     <t>. &lt;= 5</t>
   </si>
   <si>
-    <t>14. Pourquoi n’avez-vous  pas avalé le PZQ la dernière campagne?</t>
-  </si>
-  <si>
     <t>COVID</t>
   </si>
   <si>
@@ -522,12 +459,6 @@
     <t>raison_non_med</t>
   </si>
   <si>
-    <t xml:space="preserve">17. Lequel/lesquels des effets indésirables avez-vous eu après  la prise du PZQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le DC-t-il pris votre taille avant de vous donner les médicaments ? </t>
-  </si>
-  <si>
     <t>${Avale_PZQ} = 'Oui'</t>
   </si>
   <si>
@@ -543,12 +474,120 @@
     <t>${Pourquoi_Pas_recu_PZQ} = 'Other'</t>
   </si>
   <si>
-    <t>bf_ECT_Schisto_3_couv_202011</t>
+    <t>Menage</t>
+  </si>
+  <si>
+    <t>Ménage</t>
+  </si>
+  <si>
+    <t>Lieux_de_culte</t>
+  </si>
+  <si>
+    <t>Lieux de culte</t>
+  </si>
+  <si>
+    <t>Gare-routier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gare routière </t>
+  </si>
+  <si>
+    <t>Marché</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marché  </t>
+  </si>
+  <si>
+    <t>Lieu_de_travail</t>
+  </si>
+  <si>
+    <t>Lieu de travail</t>
+  </si>
+  <si>
+    <t>Ecole</t>
+  </si>
+  <si>
+    <t>Autres</t>
+  </si>
+  <si>
+    <t>list_Lieu</t>
+  </si>
+  <si>
+    <t>Personne_interrogee</t>
+  </si>
+  <si>
+    <t>2. Sélectionner un DS</t>
+  </si>
+  <si>
+    <t>3. Numéro grappe</t>
+  </si>
+  <si>
+    <t>4. Numéro ménage</t>
+  </si>
+  <si>
+    <t>5. Age (en année)</t>
+  </si>
+  <si>
+    <t>6. Sexe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Personne qui répond au questionnaire </t>
+  </si>
+  <si>
+    <t>8. Depuis combien d’année vivez-vous dans ce village ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.Combien de fois avez-vous pris le PZQ au cours des 5 dernières années </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Avez-vous reçu les comprimés de PZQ lors de la dernière campagne ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Où étiez-vous lorsque vous avez reçu le médicament? </t>
+  </si>
+  <si>
+    <t>14.Combien de comprimés avez-vous avalé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Avez-vous avalé ces médicaments devant la personne qui vous les a donnés ? </t>
+  </si>
+  <si>
+    <t>16. Pourquoi n’avez-vous  pas avalé le PZQ la dernière campagne?</t>
+  </si>
+  <si>
+    <t>17. Avez-vous eu des effets indésirables après  la prise d l'ivermectine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. Lequel/lesquels des effets indésirables avez-vous eu après  la prise du PZQ </t>
+  </si>
+  <si>
+    <t>18.b. Autres effet indésirables</t>
+  </si>
+  <si>
+    <t>19. Combien de temps après avez-vous eu cet/ces effet (s)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.Le DC-t-il pris votre taille avant de vous donner les médicaments ? </t>
+  </si>
+  <si>
+    <t>21.Prendre la taille de l'enquêté à l'aide d'une toise et noter les résultats</t>
+  </si>
+  <si>
+    <t>22. L'enquêté a-t-il été traité par l'équipe?</t>
+  </si>
+  <si>
+    <t>23. Notes</t>
+  </si>
+  <si>
+    <t>(BF - Novembre 2020) ECT Schisto - 3. Formulaire Couverture</t>
   </si>
   <si>
     <t>select_one ds_list</t>
   </si>
   <si>
+    <t>select_one list_Lieu</t>
+  </si>
+  <si>
     <t>select_one raison_non_med</t>
   </si>
   <si>
@@ -561,14 +600,20 @@
     <t>${Recu_PZQ} = 'Non'</t>
   </si>
   <si>
-    <t>(BF - Novembre 2020) ECT Schisto - 3. Formulaire Couverture</t>
+    <t>${Repondant} = 'Personne_interrogee'</t>
+  </si>
+  <si>
+    <t>${Recu_PZQ}= 'Oui'</t>
+  </si>
+  <si>
+    <t>bf_ECT_Schisto_3_coverage_202011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -597,11 +642,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -616,7 +656,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,6 +666,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,17 +688,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,14 +1015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -996,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1005,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -1022,21 +1071,21 @@
         <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>174</v>
+      <c r="A3" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -1048,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>74</v>
@@ -1057,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1068,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>74</v>
@@ -1082,16 +1131,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1102,7 +1151,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>74</v>
@@ -1110,13 +1159,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>74</v>
@@ -1130,16 +1179,16 @@
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1147,16 +1196,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1165,10 +1214,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>156</v>
+        <v>137</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>74</v>
@@ -1177,37 +1226,37 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
+      <c r="A12" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>175</v>
+      <c r="A13" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>178</v>
+      <c r="G13" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1218,13 +1267,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1232,16 +1281,16 @@
         <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>171</v>
+      <c r="G15" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1249,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="D16" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1269,50 +1318,50 @@
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D17" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>177</v>
+      <c r="A18" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1323,13 +1372,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1340,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>75</v>
@@ -1357,13 +1406,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1371,33 +1420,33 @@
         <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>171</v>
+      <c r="G23" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>135</v>
+      <c r="G24" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1405,15 +1454,17 @@
         <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1423,7 +1474,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>75</v>
@@ -1457,14 +1508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1482,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1542,46 +1593,46 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1608,21 +1659,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1630,7 +1681,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>35</v>
@@ -1641,10 +1692,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
@@ -1652,10 +1703,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>37</v>
@@ -1663,10 +1714,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>38</v>
@@ -1674,10 +1725,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
@@ -1685,10 +1736,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>40</v>
@@ -1696,10 +1747,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>41</v>
@@ -1707,7 +1758,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
@@ -1718,28 +1769,28 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1761,19 +1812,19 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>176</v>
+      <c r="A27" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>176</v>
+      <c r="A28" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>45</v>
@@ -1783,30 +1834,30 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>176</v>
+      <c r="A29" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>176</v>
+      <c r="A30" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>176</v>
+      <c r="A31" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>42</v>
@@ -1816,22 +1867,22 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>176</v>
+      <c r="A32" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>176</v>
+      <c r="A33" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
@@ -1842,7 +1893,7 @@
         <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>50</v>
@@ -1853,7 +1904,7 @@
         <v>77</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>51</v>
@@ -1886,7 +1937,7 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>54</v>
@@ -1908,7 +1959,7 @@
         <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>56</v>
@@ -1919,7 +1970,7 @@
         <v>77</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>57</v>
@@ -1952,7 +2003,7 @@
         <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>60</v>
@@ -1960,46 +2011,123 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2014,20 +2142,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2042,21 +2170,21 @@
         <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
       </c>
       <c r="C2">
-        <v>20201115</v>
+        <v>20190728</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020_Formulaire_Enquete_de_couverture.xlsx
+++ b/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020_Formulaire_Enquete_de_couverture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\SCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08234F76-50F9-4326-A9BB-DC8109F20981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4175C22-684D-4E6B-9706-7DAE4B19AC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="194">
   <si>
     <t>type</t>
   </si>
@@ -555,9 +555,6 @@
     <t>16. Pourquoi n’avez-vous  pas avalé le PZQ la dernière campagne?</t>
   </si>
   <si>
-    <t>17. Avez-vous eu des effets indésirables après  la prise d l'ivermectine</t>
-  </si>
-  <si>
     <t xml:space="preserve">18. Lequel/lesquels des effets indésirables avez-vous eu après  la prise du PZQ </t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>19. Combien de temps après avez-vous eu cet/ces effet (s)?</t>
   </si>
   <si>
-    <t xml:space="preserve">20.Le DC-t-il pris votre taille avant de vous donner les médicaments ? </t>
-  </si>
-  <si>
     <t>21.Prendre la taille de l'enquêté à l'aide d'une toise et noter les résultats</t>
   </si>
   <si>
@@ -579,34 +573,37 @@
     <t>23. Notes</t>
   </si>
   <si>
+    <t>17. Avez-vous eu des effets indésirables après  la prise du PZQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.Le DC a -t-il pris votre taille avant de vous donner les médicaments ? </t>
+  </si>
+  <si>
     <t>(BF - Novembre 2020) ECT Schisto - 3. Formulaire Couverture</t>
   </si>
   <si>
+    <t>bf_ECT_Schisto_3_coverage_202011</t>
+  </si>
+  <si>
     <t>select_one ds_list</t>
   </si>
   <si>
     <t>select_one list_Lieu</t>
   </si>
   <si>
+    <t>raison_non_avale</t>
+  </si>
+  <si>
+    <t>select_one raison_non_avale</t>
+  </si>
+  <si>
     <t>select_one raison_non_med</t>
   </si>
   <si>
-    <t>raison_non_avale</t>
-  </si>
-  <si>
-    <t>select_one raison_non_avale</t>
-  </si>
-  <si>
-    <t>${Recu_PZQ} = 'Non'</t>
-  </si>
-  <si>
     <t>${Repondant} = 'Personne_interrogee'</t>
   </si>
   <si>
-    <t>${Recu_PZQ}= 'Oui'</t>
-  </si>
-  <si>
-    <t>bf_ECT_Schisto_3_coverage_202011</t>
+    <t>${Recu_PZQ}  = 'Non'</t>
   </si>
 </sst>
 </file>
@@ -656,7 +653,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,12 +663,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -700,8 +691,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,13 +1010,13 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="68.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -1078,8 +1067,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>186</v>
+      <c r="A3" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>125</v>
@@ -1226,8 +1215,8 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>187</v>
+      <c r="A12" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>113</v>
@@ -1243,8 +1232,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>188</v>
+      <c r="A13" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>138</v>
@@ -1255,8 +1244,8 @@
       <c r="D13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>191</v>
+      <c r="G13" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1289,7 +1278,7 @@
       <c r="D15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1331,7 +1320,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1348,14 +1337,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>177</v>
+      <c r="C19" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>74</v>
@@ -1372,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>74</v>
@@ -1389,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>75</v>
@@ -1406,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>74</v>
@@ -1422,14 +1411,14 @@
       <c r="B23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>181</v>
+      <c r="C23" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>193</v>
+      <c r="G23" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1440,12 +1429,12 @@
         <v>117</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1457,12 +1446,12 @@
         <v>118</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1474,7 +1463,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>75</v>
@@ -1514,8 +1503,8 @@
   </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1812,7 +1801,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1823,7 +1812,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1834,7 +1823,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1845,7 +1834,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1856,7 +1845,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1867,7 +1856,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1878,7 +1867,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1889,7 +1878,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2148,14 +2137,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2178,7 +2167,7 @@
         <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C2">
         <v>20190728</v>

--- a/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020_Formulaire_Enquete_de_couverture.xlsx
+++ b/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020_Formulaire_Enquete_de_couverture.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\SCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4175C22-684D-4E6B-9706-7DAE4B19AC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{78FF9946-63A8-40D1-B65E-BEBD48697926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="198">
   <si>
     <t>type</t>
   </si>
@@ -387,18 +387,6 @@
     <t>list_taille</t>
   </si>
   <si>
-    <t>Noir</t>
-  </si>
-  <si>
-    <t>Jaune</t>
-  </si>
-  <si>
-    <t>Bleu</t>
-  </si>
-  <si>
-    <t>Vert</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
@@ -579,6 +567,48 @@
     <t xml:space="preserve">20.Le DC a -t-il pris votre taille avant de vous donner les médicaments ? </t>
   </si>
   <si>
+    <t>1cp</t>
+  </si>
+  <si>
+    <t>1cp+1/2</t>
+  </si>
+  <si>
+    <t>2cp</t>
+  </si>
+  <si>
+    <t>2cp+1/2</t>
+  </si>
+  <si>
+    <t>3cp</t>
+  </si>
+  <si>
+    <t>4cp</t>
+  </si>
+  <si>
+    <t>0cp</t>
+  </si>
+  <si>
+    <t>5cp</t>
+  </si>
+  <si>
+    <t>select_one list_Lieu</t>
+  </si>
+  <si>
+    <t>select_one raison_non_med</t>
+  </si>
+  <si>
+    <t>raison_non_avale</t>
+  </si>
+  <si>
+    <t>select_one raison_non_avale</t>
+  </si>
+  <si>
+    <t>${Recu_PZQ} = 'Non'</t>
+  </si>
+  <si>
+    <t>${Repondant} = 'Personne_interrogee'</t>
+  </si>
+  <si>
     <t>(BF - Novembre 2020) ECT Schisto - 3. Formulaire Couverture</t>
   </si>
   <si>
@@ -586,30 +616,12 @@
   </si>
   <si>
     <t>select_one ds_list</t>
-  </si>
-  <si>
-    <t>select_one list_Lieu</t>
-  </si>
-  <si>
-    <t>raison_non_avale</t>
-  </si>
-  <si>
-    <t>select_one raison_non_avale</t>
-  </si>
-  <si>
-    <t>select_one raison_non_med</t>
-  </si>
-  <si>
-    <t>${Repondant} = 'Personne_interrogee'</t>
-  </si>
-  <si>
-    <t>${Recu_PZQ}  = 'Non'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -679,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -691,6 +703,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,19 +1018,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="68.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -1068,13 +1082,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -1086,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>74</v>
@@ -1106,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>74</v>
@@ -1120,13 +1134,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>98</v>
@@ -1140,7 +1154,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>74</v>
@@ -1154,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>74</v>
@@ -1168,7 +1182,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>74</v>
@@ -1185,16 +1199,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1203,10 +1217,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>74</v>
@@ -1216,27 +1230,27 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>106</v>
@@ -1262,7 +1276,7 @@
         <v>75</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1270,7 +1284,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>107</v>
@@ -1279,7 +1293,7 @@
         <v>74</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1287,19 +1301,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,50 +1324,50 @@
         <v>114</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>183</v>
+      <c r="C19" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
@@ -1361,16 +1375,16 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1392,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>75</v>
@@ -1387,7 +1401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -1395,7 +1409,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>74</v>
@@ -1404,24 +1418,24 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>184</v>
+      <c r="C23" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>116</v>
       </c>
@@ -1429,16 +1443,16 @@
         <v>117</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -1446,13 +1460,13 @@
         <v>118</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1463,7 +1477,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>75</v>
@@ -1497,14 +1511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1582,46 +1596,46 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1651,7 +1665,7 @@
         <v>101</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>119</v>
@@ -1670,7 +1684,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>35</v>
@@ -1681,7 +1695,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>89</v>
@@ -1692,7 +1706,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>83</v>
@@ -1703,7 +1717,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>84</v>
@@ -1714,7 +1728,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>85</v>
@@ -1725,7 +1739,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>86</v>
@@ -1736,7 +1750,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>87</v>
@@ -1747,7 +1761,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
@@ -1758,18 +1772,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>88</v>
@@ -1802,7 +1816,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>92</v>
@@ -1813,7 +1827,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>45</v>
@@ -1824,7 +1838,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>90</v>
@@ -1835,7 +1849,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>91</v>
@@ -1846,7 +1860,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>42</v>
@@ -1857,18 +1871,18 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>88</v>
@@ -1999,124 +2013,168 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" t="s">
-        <v>121</v>
+      <c r="B45" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" t="s">
-        <v>122</v>
+      <c r="B46" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" t="s">
-        <v>123</v>
+      <c r="B47" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" t="s">
-        <v>124</v>
+      <c r="B48" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C58" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>161</v>
+      <c r="C59" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2131,14 +2189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2164,13 +2222,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C2">
-        <v>20190728</v>
+        <v>20201205</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>112</v>
